--- a/docs/Scada_File_Ingestion_App_Design.xlsx
+++ b/docs/Scada_File_Ingestion_App_Design.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20352"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4BFC4E-A905-4E76-99F5-E8F587DAB41D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataFileInfo" sheetId="1" r:id="rId1"/>
     <sheet name="DatabaseSchema" sheetId="2" r:id="rId2"/>
+    <sheet name="db_schema" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>File Discovery</t>
   </si>
@@ -40,11 +42,23 @@
   <si>
     <t>data_tag, data_time will be unique</t>
   </si>
+  <si>
+    <t>meas_time</t>
+  </si>
+  <si>
+    <t>meas_tag</t>
+  </si>
+  <si>
+    <t>meas_val</t>
+  </si>
+  <si>
+    <t>Timescaledb architecture</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -62,7 +76,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -87,8 +101,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -96,16 +122,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -140,7 +184,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -463,7 +513,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -632,7 +688,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -770,6 +832,60 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>589854</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104498</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DC946B2-414E-447F-9289-16277C5BD4ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4295775" y="552450"/>
+          <a:ext cx="5571429" cy="2219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -851,6 +967,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -886,6 +1019,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1061,11 +1211,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,7 +1243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1129,4 +1279,60 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46E3C73-6850-4DAA-BE24-567F05D6B0B6}">
+  <dimension ref="A2:M6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>